--- a/Translation/Zowe Virtual Desktop Translation Reference.xlsx
+++ b/Translation/Zowe Virtual Desktop Translation Reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rocketsoftwareinc-my.sharepoint.com/personal/jlinardon_rocketsoftware_com/Documents/ZOWE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lastrakou\Desktop\zlux\community\Translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{DC55E723-C124-41DB-8842-C7E7CD492C56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{10337467-01F5-4FDF-9DB6-39BFA183F3F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0F7921-0685-422F-A45E-F7325039E7A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Constructs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="1339">
   <si>
     <t>Zowe Virtual Desktop Translation Reference</t>
   </si>
@@ -3776,12 +3776,6 @@
     <t>无法找到对应ID的应用</t>
   </si>
   <si>
-    <t>Тип программы</t>
-  </si>
-  <si>
-    <t>Версия программы</t>
-  </si>
-  <si>
     <t>Закрыть все</t>
   </si>
   <si>
@@ -4065,6 +4059,15 @@
   </si>
   <si>
     <t>错误 保存变量</t>
+  </si>
+  <si>
+    <t>Приложение</t>
+  </si>
+  <si>
+    <t>Тип приложение</t>
+  </si>
+  <si>
+    <t>Версия приложение</t>
   </si>
 </sst>
 </file>
@@ -4680,9 +4683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4884,7 +4887,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>1241</v>
+        <v>1337</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>60</v>
@@ -4928,7 +4931,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>1242</v>
+        <v>1338</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>80</v>
@@ -4972,7 +4975,7 @@
         <v>88</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>89</v>
+        <v>1336</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>87</v>
@@ -5554,7 +5557,7 @@
         <v>240</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>241</v>
@@ -5756,22 +5759,22 @@
         <v>93</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -6270,22 +6273,22 @@
         <v>93</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>234</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -7522,7 +7525,7 @@
         <v>85</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>97</v>
@@ -7566,7 +7569,7 @@
         <v>173</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>174</v>
@@ -7636,7 +7639,7 @@
         <v>548</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>550</v>
@@ -8046,7 +8049,7 @@
         <v>697</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>698</v>
@@ -9114,7 +9117,7 @@
         <v>202</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="F128" s="15" t="s">
         <v>205</v>
@@ -9158,7 +9161,7 @@
         <v>217</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F129" s="15" t="s">
         <v>218</v>
@@ -9238,19 +9241,19 @@
         <v>93</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E131" s="30" t="s">
         <v>825</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="H131" s="26" t="s">
         <v>804</v>
@@ -14545,7 +14548,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -14634,7 +14637,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -14989,7 +14992,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
@@ -15000,7 +15003,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
@@ -15011,7 +15014,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
@@ -15022,7 +15025,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
@@ -15044,7 +15047,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
@@ -15055,7 +15058,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
@@ -15066,7 +15069,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
@@ -15077,7 +15080,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
@@ -15088,7 +15091,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
@@ -15099,7 +15102,7 @@
         <v>12</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
@@ -15110,7 +15113,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
@@ -15121,7 +15124,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
@@ -15132,7 +15135,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
@@ -15143,7 +15146,7 @@
         <v>9</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
@@ -15154,7 +15157,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
@@ -15165,7 +15168,7 @@
         <v>12</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
@@ -15176,7 +15179,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
@@ -15187,7 +15190,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
@@ -15198,7 +15201,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
@@ -15209,7 +15212,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
@@ -15220,7 +15223,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
@@ -15231,7 +15234,7 @@
         <v>12</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
@@ -15242,7 +15245,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
@@ -15253,7 +15256,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
@@ -15264,7 +15267,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
@@ -15275,7 +15278,7 @@
         <v>9</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
@@ -15286,7 +15289,7 @@
         <v>10</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
@@ -15297,7 +15300,7 @@
         <v>12</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
@@ -15308,7 +15311,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
@@ -15319,7 +15322,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
@@ -15330,7 +15333,7 @@
         <v>8</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
@@ -15341,7 +15344,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
@@ -15352,7 +15355,7 @@
         <v>10</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
@@ -15363,7 +15366,7 @@
         <v>12</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
@@ -15374,7 +15377,7 @@
         <v>14</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
@@ -18393,7 +18396,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>97</v>
@@ -18416,7 +18419,7 @@
         <v>173</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>174</v>
@@ -18462,7 +18465,7 @@
         <v>202</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>205</v>
@@ -18485,7 +18488,7 @@
         <v>217</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>218</v>
@@ -19516,7 +19519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
@@ -19584,7 +19587,7 @@
         <v>502</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>503</v>
@@ -19630,7 +19633,7 @@
         <v>515</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>516</v>
@@ -19653,7 +19656,7 @@
         <v>520</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>521</v>
@@ -19676,7 +19679,7 @@
         <v>525</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>526</v>
@@ -19699,7 +19702,7 @@
         <v>530</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>531</v>
@@ -19745,7 +19748,7 @@
         <v>539</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>542</v>
@@ -19768,7 +19771,7 @@
         <v>549</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>553</v>
@@ -19791,7 +19794,7 @@
         <v>558</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>559</v>
@@ -19814,7 +19817,7 @@
         <v>563</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>564</v>
@@ -19929,7 +19932,7 @@
         <v>584</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>586</v>
@@ -19994,7 +19997,7 @@
         <v>610</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>613</v>
@@ -20040,7 +20043,7 @@
         <v>626</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>629</v>
@@ -20063,7 +20066,7 @@
         <v>636</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>639</v>
@@ -20086,7 +20089,7 @@
         <v>650</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>651</v>
@@ -20132,7 +20135,7 @@
         <v>1235</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>1230</v>
@@ -20155,7 +20158,7 @@
         <v>1236</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>1229</v>
@@ -20178,7 +20181,7 @@
         <v>1237</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>1231</v>
@@ -20195,22 +20198,22 @@
         <v>13</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1">
@@ -20218,22 +20221,22 @@
         <v>13</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1">
@@ -20241,22 +20244,22 @@
         <v>13</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1"/>

--- a/Translation/Zowe Virtual Desktop Translation Reference.xlsx
+++ b/Translation/Zowe Virtual Desktop Translation Reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lastrakou\Desktop\zlux\community\Translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0F7921-0685-422F-A45E-F7325039E7A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08E1153-4FCB-4336-927A-D42050AFE646}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1256,9 +1256,6 @@
     <t>ファイル転送アプリケーション</t>
   </si>
   <si>
-    <t>Программа Передачи Файлов</t>
-  </si>
-  <si>
     <t>Transfer de Fichiers</t>
   </si>
   <si>
@@ -4068,6 +4065,9 @@
   </si>
   <si>
     <t>Версия приложение</t>
+  </si>
+  <si>
+    <t>Передачи Файлов</t>
   </si>
 </sst>
 </file>
@@ -4684,8 +4684,8 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="3" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4887,7 +4887,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>60</v>
@@ -4931,7 +4931,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>80</v>
@@ -4975,7 +4975,7 @@
         <v>88</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>87</v>
@@ -5270,7 +5270,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>160</v>
@@ -5557,7 +5557,7 @@
         <v>240</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>241</v>
@@ -5759,22 +5759,22 @@
         <v>93</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -6273,22 +6273,22 @@
         <v>93</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>234</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G46" s="26" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H46" s="26" t="s">
         <v>1284</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>1285</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -6713,16 +6713,16 @@
         <v>407</v>
       </c>
       <c r="E58" s="15" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F58" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="G58" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="H58" s="15" t="s">
         <v>410</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1">
@@ -6731,19 +6731,19 @@
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="E59" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="F59" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="G59" s="15" t="s">
         <v>415</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>416</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>314</v>
@@ -6773,22 +6773,22 @@
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="E60" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="D60" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="E60" s="15" t="s">
+      <c r="F60" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="G60" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="H60" s="15" t="s">
         <v>419</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1">
@@ -6799,22 +6799,22 @@
         <v>93</v>
       </c>
       <c r="C61" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="D61" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="E61" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="F61" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="G61" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="G61" s="15" t="s">
-        <v>425</v>
-      </c>
       <c r="H61" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1">
@@ -6825,22 +6825,22 @@
         <v>93</v>
       </c>
       <c r="C62" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="D62" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="E62" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="F62" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="G62" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="H62" s="15" t="s">
         <v>430</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1">
@@ -6849,22 +6849,22 @@
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="D63" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="E63" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="F63" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="G63" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G63" s="15" t="s">
+      <c r="H63" s="15" t="s">
         <v>436</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>437</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -6893,22 +6893,22 @@
         <v>93</v>
       </c>
       <c r="C64" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="D64" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="E64" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="F64" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="G64" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="H64" s="15" t="s">
         <v>442</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1">
@@ -6997,28 +6997,28 @@
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1">
       <c r="A67" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="C67" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="D67" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="G67" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="D67" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>447</v>
-      </c>
       <c r="H67" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1">
@@ -7026,25 +7026,25 @@
         <v>15</v>
       </c>
       <c r="B68" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C68" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="D68" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="E68" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="F68" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="G68" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="H68" s="15" t="s">
         <v>453</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>454</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -7071,22 +7071,22 @@
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D69" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="E69" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="F69" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="G69" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="H69" s="15" t="s">
         <v>459</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1">
@@ -7094,25 +7094,25 @@
         <v>15</v>
       </c>
       <c r="B70" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C70" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="D70" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="E70" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="F70" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="G70" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="G70" s="15" t="s">
-        <v>466</v>
-      </c>
       <c r="H70" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -7141,22 +7141,22 @@
         <v>250</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -7182,25 +7182,25 @@
         <v>15</v>
       </c>
       <c r="B72" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C72" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="D72" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="E72" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="F72" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="G72" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="F72" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>472</v>
-      </c>
       <c r="H72" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -7226,25 +7226,25 @@
         <v>15</v>
       </c>
       <c r="B73" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C73" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="D73" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="E73" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="D73" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>475</v>
-      </c>
       <c r="F73" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -7273,22 +7273,22 @@
         <v>93</v>
       </c>
       <c r="C74" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="D74" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="E74" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="F74" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="G74" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="G74" s="15" t="s">
+      <c r="H74" s="15" t="s">
         <v>480</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1">
@@ -7297,22 +7297,22 @@
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="D75" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="E75" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="F75" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="G75" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="G75" s="15" t="s">
+      <c r="H75" s="15" t="s">
         <v>486</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1">
@@ -7321,22 +7321,22 @@
       </c>
       <c r="B76" s="15"/>
       <c r="C76" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="D76" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="E76" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="F76" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="G76" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="H76" s="15" t="s">
         <v>492</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>493</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -7363,22 +7363,22 @@
       </c>
       <c r="B77" s="15"/>
       <c r="C77" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="E77" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="F77" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="G77" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="G77" s="15" t="s">
-        <v>498</v>
-      </c>
       <c r="H77" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -7449,22 +7449,22 @@
         <v>250</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1">
@@ -7472,7 +7472,7 @@
         <v>15</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C80" s="27" t="s">
         <v>184</v>
@@ -7513,10 +7513,10 @@
     </row>
     <row r="81" spans="1:26" ht="14.25" customHeight="1">
       <c r="A81" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B81" s="15" t="s">
         <v>444</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>445</v>
       </c>
       <c r="C81" s="27" t="s">
         <v>83</v>
@@ -7525,7 +7525,7 @@
         <v>85</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>97</v>
@@ -7557,10 +7557,10 @@
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1">
       <c r="A82" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>444</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>445</v>
       </c>
       <c r="C82" s="27" t="s">
         <v>172</v>
@@ -7569,7 +7569,7 @@
         <v>173</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>174</v>
@@ -7607,22 +7607,22 @@
         <v>93</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F83" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="G83" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="G83" s="15" t="s">
-        <v>541</v>
-      </c>
       <c r="H83" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1">
@@ -7633,22 +7633,22 @@
         <v>103</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F84" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="G84" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="G84" s="15" t="s">
+      <c r="H84" s="15" t="s">
         <v>551</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1">
@@ -7659,22 +7659,22 @@
         <v>93</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D85" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="E85" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="E85" s="15" t="s">
-        <v>573</v>
-      </c>
       <c r="F85" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1">
@@ -7685,22 +7685,22 @@
         <v>93</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F86" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="G86" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="H86" s="16" t="s">
         <v>592</v>
-      </c>
-      <c r="H86" s="16" t="s">
-        <v>593</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
@@ -7729,22 +7729,22 @@
         <v>93</v>
       </c>
       <c r="C87" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="D87" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="E87" s="15" t="s">
         <v>596</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>597</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>140</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="14.25" customHeight="1">
@@ -7752,25 +7752,25 @@
         <v>38</v>
       </c>
       <c r="B88" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="C88" s="27" t="s">
         <v>605</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="D88" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="D88" s="22" t="s">
-        <v>607</v>
-      </c>
       <c r="E88" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F88" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="G88" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="G88" s="15" t="s">
-        <v>612</v>
-      </c>
       <c r="H88" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -7799,22 +7799,22 @@
         <v>93</v>
       </c>
       <c r="C89" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="D89" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="D89" s="22" t="s">
-        <v>623</v>
-      </c>
       <c r="E89" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F89" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="G89" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="G89" s="15" t="s">
-        <v>628</v>
-      </c>
       <c r="H89" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="14.25" customHeight="1">
@@ -7823,22 +7823,22 @@
       </c>
       <c r="B90" s="15"/>
       <c r="C90" s="27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E90" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="F90" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="F90" s="15" t="s">
-        <v>638</v>
-      </c>
       <c r="G90" s="15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1">
@@ -7849,22 +7849,22 @@
         <v>93</v>
       </c>
       <c r="C91" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="D91" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="E91" s="15" t="s">
         <v>645</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="F91" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="F91" s="15" t="s">
-        <v>647</v>
-      </c>
       <c r="G91" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1">
@@ -7875,22 +7875,22 @@
         <v>93</v>
       </c>
       <c r="C92" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="D92" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="E92" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="F92" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="G92" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="G92" s="15" t="s">
+      <c r="H92" s="15" t="s">
         <v>658</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>659</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -7919,22 +7919,22 @@
         <v>93</v>
       </c>
       <c r="C93" s="27" t="s">
+        <v>665</v>
+      </c>
+      <c r="D93" s="22" t="s">
         <v>666</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="E93" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="F93" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="E93" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="F93" s="15" t="s">
+      <c r="G93" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="G93" s="15" t="s">
+      <c r="H93" s="15" t="s">
         <v>669</v>
-      </c>
-      <c r="H93" s="15" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1">
@@ -7943,22 +7943,22 @@
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="D94" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="E94" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="F94" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="G94" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="H94" s="15" t="s">
         <v>675</v>
-      </c>
-      <c r="H94" s="15" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1">
@@ -7967,22 +7967,22 @@
       </c>
       <c r="B95" s="15"/>
       <c r="C95" s="27" t="s">
+        <v>676</v>
+      </c>
+      <c r="D95" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="E95" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="F95" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="G95" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="G95" s="15" t="s">
+      <c r="H95" s="15" t="s">
         <v>681</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1">
@@ -7991,22 +7991,22 @@
       </c>
       <c r="B96" s="15"/>
       <c r="C96" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="D96" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="E96" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="E96" s="15" t="s">
+      <c r="F96" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="F96" s="15" t="s">
+      <c r="G96" s="15" t="s">
         <v>686</v>
       </c>
-      <c r="G96" s="15" t="s">
+      <c r="H96" s="15" t="s">
         <v>687</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="14.25" customHeight="1">
@@ -8017,22 +8017,22 @@
         <v>93</v>
       </c>
       <c r="C97" s="27" t="s">
+        <v>688</v>
+      </c>
+      <c r="D97" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="E97" s="15" t="s">
         <v>690</v>
       </c>
-      <c r="E97" s="15" t="s">
+      <c r="F97" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="F97" s="15" t="s">
+      <c r="G97" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="G97" s="15" t="s">
+      <c r="H97" s="15" t="s">
         <v>693</v>
-      </c>
-      <c r="H97" s="15" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="14.25" customHeight="1">
@@ -8043,22 +8043,22 @@
         <v>93</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D98" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F98" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="E98" s="16" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F98" s="15" t="s">
+      <c r="G98" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="G98" s="15" t="s">
+      <c r="H98" s="15" t="s">
         <v>699</v>
-      </c>
-      <c r="H98" s="15" t="s">
-        <v>700</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -8084,25 +8084,25 @@
         <v>38</v>
       </c>
       <c r="B99" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="C99" s="27" t="s">
         <v>702</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="D99" s="22" t="s">
         <v>703</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="E99" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="E99" s="15" t="s">
+      <c r="F99" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="F99" s="15" t="s">
+      <c r="G99" s="15" t="s">
         <v>706</v>
       </c>
-      <c r="G99" s="15" t="s">
+      <c r="H99" s="15" t="s">
         <v>707</v>
-      </c>
-      <c r="H99" s="15" t="s">
-        <v>708</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -8129,22 +8129,22 @@
       </c>
       <c r="B100" s="15"/>
       <c r="C100" s="27" t="s">
+        <v>708</v>
+      </c>
+      <c r="D100" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="E100" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="E100" s="15" t="s">
+      <c r="F100" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="G100" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="F100" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="G100" s="15" t="s">
+      <c r="H100" s="15" t="s">
         <v>712</v>
-      </c>
-      <c r="H100" s="15" t="s">
-        <v>713</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -8171,22 +8171,22 @@
       </c>
       <c r="B101" s="15"/>
       <c r="C101" s="27" t="s">
+        <v>713</v>
+      </c>
+      <c r="D101" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="E101" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="E101" s="15" t="s">
+      <c r="F101" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="F101" s="15" t="s">
+      <c r="G101" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="G101" s="15" t="s">
+      <c r="H101" s="15" t="s">
         <v>718</v>
-      </c>
-      <c r="H101" s="15" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="14.25" customHeight="1">
@@ -8197,22 +8197,22 @@
         <v>93</v>
       </c>
       <c r="C102" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="D102" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="D102" s="22" t="s">
+      <c r="E102" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="F102" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="E102" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="F102" s="15" t="s">
+      <c r="G102" s="15" t="s">
         <v>722</v>
       </c>
-      <c r="G102" s="15" t="s">
+      <c r="H102" s="15" t="s">
         <v>723</v>
-      </c>
-      <c r="H102" s="15" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="14.25" customHeight="1">
@@ -8223,48 +8223,48 @@
         <v>93</v>
       </c>
       <c r="C103" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="D103" s="22" t="s">
         <v>725</v>
       </c>
-      <c r="D103" s="22" t="s">
+      <c r="E103" s="15" t="s">
         <v>726</v>
       </c>
-      <c r="E103" s="15" t="s">
+      <c r="F103" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="G103" s="15" t="s">
         <v>728</v>
       </c>
-      <c r="G103" s="15" t="s">
+      <c r="H103" s="15" t="s">
         <v>729</v>
-      </c>
-      <c r="H103" s="15" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="14.25" customHeight="1">
       <c r="A104" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B104" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="C104" s="27" t="s">
         <v>731</v>
       </c>
-      <c r="C104" s="27" t="s">
+      <c r="D104" s="22" t="s">
         <v>732</v>
       </c>
-      <c r="D104" s="22" t="s">
+      <c r="E104" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="E104" s="15" t="s">
+      <c r="F104" s="15" t="s">
         <v>734</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="G104" s="15" t="s">
         <v>735</v>
       </c>
-      <c r="G104" s="15" t="s">
+      <c r="H104" s="15" t="s">
         <v>736</v>
-      </c>
-      <c r="H104" s="15" t="s">
-        <v>737</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -8291,22 +8291,22 @@
       </c>
       <c r="B105" s="15"/>
       <c r="C105" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="D105" s="22" t="s">
         <v>738</v>
       </c>
-      <c r="D105" s="22" t="s">
+      <c r="E105" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="E105" s="15" t="s">
+      <c r="F105" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="G105" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="F105" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>741</v>
-      </c>
       <c r="H105" s="15" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -8335,22 +8335,22 @@
         <v>93</v>
       </c>
       <c r="C106" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="D106" s="22" t="s">
         <v>742</v>
       </c>
-      <c r="D106" s="22" t="s">
+      <c r="E106" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="F106" s="15" t="s">
         <v>744</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="G106" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="G106" s="15" t="s">
+      <c r="H106" s="15" t="s">
         <v>746</v>
-      </c>
-      <c r="H106" s="15" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="14.25" customHeight="1">
@@ -8361,22 +8361,22 @@
         <v>93</v>
       </c>
       <c r="C107" s="27" t="s">
+        <v>747</v>
+      </c>
+      <c r="D107" s="22" t="s">
         <v>748</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="E107" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="F107" s="15" t="s">
         <v>750</v>
       </c>
-      <c r="F107" s="15" t="s">
+      <c r="G107" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="G107" s="15" t="s">
+      <c r="H107" s="15" t="s">
         <v>752</v>
-      </c>
-      <c r="H107" s="15" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="14.25" customHeight="1">
@@ -8387,22 +8387,22 @@
         <v>93</v>
       </c>
       <c r="C108" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="D108" s="22" t="s">
         <v>754</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="E108" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="E108" s="15" t="s">
+      <c r="F108" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="F108" s="15" t="s">
+      <c r="G108" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="G108" s="15" t="s">
+      <c r="H108" s="15" t="s">
         <v>758</v>
-      </c>
-      <c r="H108" s="15" t="s">
-        <v>759</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -8431,22 +8431,22 @@
         <v>29</v>
       </c>
       <c r="C109" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="D109" s="22" t="s">
         <v>754</v>
       </c>
-      <c r="D109" s="22" t="s">
-        <v>755</v>
-      </c>
       <c r="E109" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="F109" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="F109" s="15" t="s">
+      <c r="G109" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="G109" s="15" t="s">
-        <v>762</v>
-      </c>
       <c r="H109" s="15" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -8475,22 +8475,22 @@
         <v>103</v>
       </c>
       <c r="C110" s="27" t="s">
+        <v>762</v>
+      </c>
+      <c r="D110" s="22" t="s">
         <v>763</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="E110" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="E110" s="15" t="s">
+      <c r="F110" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="F110" s="15" t="s">
+      <c r="G110" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="G110" s="15" t="s">
+      <c r="H110" s="15" t="s">
         <v>767</v>
-      </c>
-      <c r="H110" s="15" t="s">
-        <v>768</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -8517,22 +8517,22 @@
       </c>
       <c r="B111" s="15"/>
       <c r="C111" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="D111" s="22" t="s">
         <v>769</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>770</v>
       </c>
       <c r="E111" s="15" t="s">
         <v>89</v>
       </c>
       <c r="F111" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="G111" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="G111" s="15" t="s">
+      <c r="H111" s="15" t="s">
         <v>772</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>773</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -8559,22 +8559,22 @@
       </c>
       <c r="B112" s="15"/>
       <c r="C112" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="E112" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="F112" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="H112" s="15" t="s">
         <v>770</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>775</v>
-      </c>
-      <c r="F112" s="15" t="s">
-        <v>776</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>772</v>
-      </c>
-      <c r="H112" s="15" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="113" spans="1:26" ht="14.25" customHeight="1">
@@ -8583,22 +8583,22 @@
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="D113" s="24" t="s">
         <v>777</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="E113" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="E113" s="15" t="s">
+      <c r="F113" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="F113" s="15" t="s">
+      <c r="G113" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="G113" s="15" t="s">
+      <c r="H113" s="15" t="s">
         <v>781</v>
-      </c>
-      <c r="H113" s="15" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="114" spans="1:26" ht="14.25" customHeight="1">
@@ -8609,22 +8609,22 @@
         <v>93</v>
       </c>
       <c r="C114" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="D114" s="22" t="s">
         <v>783</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="E114" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="E114" s="15" t="s">
+      <c r="F114" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="F114" s="15" t="s">
+      <c r="G114" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="G114" s="15" t="s">
+      <c r="H114" s="15" t="s">
         <v>787</v>
-      </c>
-      <c r="H114" s="15" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="115" spans="1:26" ht="14.25" customHeight="1">
@@ -8633,22 +8633,22 @@
       </c>
       <c r="B115" s="15"/>
       <c r="C115" s="27" t="s">
+        <v>788</v>
+      </c>
+      <c r="D115" s="22" t="s">
         <v>789</v>
       </c>
-      <c r="D115" s="22" t="s">
+      <c r="E115" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="E115" s="15" t="s">
+      <c r="F115" s="15" t="s">
         <v>791</v>
       </c>
-      <c r="F115" s="15" t="s">
+      <c r="G115" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="H115" s="15" t="s">
         <v>792</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>790</v>
-      </c>
-      <c r="H115" s="15" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="116" spans="1:26" ht="14.25" customHeight="1">
@@ -8657,22 +8657,22 @@
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D116" s="22" t="s">
         <v>794</v>
       </c>
-      <c r="D116" s="22" t="s">
+      <c r="E116" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="E116" s="15" t="s">
+      <c r="F116" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="F116" s="15" t="s">
+      <c r="G116" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="G116" s="15" t="s">
+      <c r="H116" s="15" t="s">
         <v>798</v>
-      </c>
-      <c r="H116" s="15" t="s">
-        <v>799</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -8701,22 +8701,22 @@
         <v>93</v>
       </c>
       <c r="C117" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D117" s="22" t="s">
         <v>800</v>
-      </c>
-      <c r="D117" s="22" t="s">
-        <v>801</v>
       </c>
       <c r="E117" s="15" t="s">
         <v>162</v>
       </c>
       <c r="F117" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="G117" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="G117" s="15" t="s">
+      <c r="H117" s="15" t="s">
         <v>803</v>
-      </c>
-      <c r="H117" s="15" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="118" spans="1:26" ht="14.25" customHeight="1">
@@ -8727,22 +8727,22 @@
         <v>93</v>
       </c>
       <c r="C118" s="27" t="s">
+        <v>804</v>
+      </c>
+      <c r="D118" s="22" t="s">
         <v>805</v>
       </c>
-      <c r="D118" s="22" t="s">
+      <c r="E118" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="E118" s="15" t="s">
+      <c r="F118" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="F118" s="15" t="s">
+      <c r="G118" s="15" t="s">
         <v>808</v>
       </c>
-      <c r="G118" s="15" t="s">
+      <c r="H118" s="15" t="s">
         <v>809</v>
-      </c>
-      <c r="H118" s="15" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="119" spans="1:26" ht="14.25" customHeight="1">
@@ -8753,22 +8753,22 @@
         <v>103</v>
       </c>
       <c r="C119" s="27" t="s">
+        <v>810</v>
+      </c>
+      <c r="D119" s="22" t="s">
         <v>811</v>
       </c>
-      <c r="D119" s="22" t="s">
+      <c r="E119" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="E119" s="15" t="s">
+      <c r="F119" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="F119" s="15" t="s">
+      <c r="G119" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="G119" s="15" t="s">
+      <c r="H119" s="15" t="s">
         <v>815</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>816</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -8797,22 +8797,22 @@
         <v>93</v>
       </c>
       <c r="C120" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="D120" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="E120" s="15" t="s">
         <v>818</v>
       </c>
-      <c r="E120" s="15" t="s">
+      <c r="F120" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="F120" s="15" t="s">
+      <c r="G120" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="G120" s="15" t="s">
+      <c r="H120" s="15" t="s">
         <v>821</v>
-      </c>
-      <c r="H120" s="15" t="s">
-        <v>822</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
@@ -8841,22 +8841,22 @@
         <v>93</v>
       </c>
       <c r="C121" s="27" t="s">
+        <v>822</v>
+      </c>
+      <c r="D121" s="22" t="s">
         <v>823</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="E121" s="15" t="s">
         <v>824</v>
       </c>
-      <c r="E121" s="15" t="s">
+      <c r="F121" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="G121" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="F121" s="15" t="s">
-        <v>802</v>
-      </c>
-      <c r="G121" s="15" t="s">
-        <v>826</v>
-      </c>
       <c r="H121" s="15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
@@ -8885,22 +8885,22 @@
         <v>93</v>
       </c>
       <c r="C122" s="27" t="s">
+        <v>826</v>
+      </c>
+      <c r="D122" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="E122" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="E122" s="15" t="s">
+      <c r="F122" s="15" t="s">
         <v>829</v>
       </c>
-      <c r="F122" s="15" t="s">
+      <c r="G122" s="15" t="s">
         <v>830</v>
       </c>
-      <c r="G122" s="15" t="s">
+      <c r="H122" s="15" t="s">
         <v>831</v>
-      </c>
-      <c r="H122" s="15" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="123" spans="1:26" ht="14.25" customHeight="1">
@@ -8911,22 +8911,22 @@
         <v>103</v>
       </c>
       <c r="C123" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="D123" s="22" t="s">
         <v>833</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="E123" s="15" t="s">
         <v>834</v>
       </c>
-      <c r="E123" s="15" t="s">
+      <c r="F123" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="F123" s="15" t="s">
+      <c r="G123" s="15" t="s">
         <v>836</v>
       </c>
-      <c r="G123" s="15" t="s">
+      <c r="H123" s="15" t="s">
         <v>837</v>
-      </c>
-      <c r="H123" s="15" t="s">
-        <v>838</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
@@ -8955,22 +8955,22 @@
         <v>93</v>
       </c>
       <c r="C124" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="D124" s="22" t="s">
         <v>839</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="E124" s="15" t="s">
         <v>840</v>
       </c>
-      <c r="E124" s="15" t="s">
+      <c r="F124" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="F124" s="15" t="s">
-        <v>842</v>
-      </c>
       <c r="G124" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="H124" s="15" t="s">
         <v>603</v>
-      </c>
-      <c r="H124" s="15" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="125" spans="1:26" ht="14.25" customHeight="1">
@@ -8979,22 +8979,22 @@
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="D125" s="22" t="s">
         <v>843</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="E125" s="15" t="s">
         <v>844</v>
       </c>
-      <c r="E125" s="15" t="s">
+      <c r="F125" s="15" t="s">
         <v>845</v>
       </c>
-      <c r="F125" s="15" t="s">
+      <c r="G125" s="15" t="s">
         <v>846</v>
       </c>
-      <c r="G125" s="15" t="s">
+      <c r="H125" s="15" t="s">
         <v>847</v>
-      </c>
-      <c r="H125" s="15" t="s">
-        <v>848</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -9023,22 +9023,22 @@
         <v>93</v>
       </c>
       <c r="C126" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="D126" s="22" t="s">
         <v>843</v>
       </c>
-      <c r="D126" s="22" t="s">
-        <v>844</v>
-      </c>
       <c r="E126" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="F126" s="15" t="s">
         <v>849</v>
       </c>
-      <c r="F126" s="15" t="s">
+      <c r="G126" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="H126" s="15" t="s">
         <v>850</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>847</v>
-      </c>
-      <c r="H126" s="15" t="s">
-        <v>851</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
@@ -9067,22 +9067,22 @@
         <v>103</v>
       </c>
       <c r="C127" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="D127" s="22" t="s">
         <v>852</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="E127" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="F127" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="E127" s="15" t="s">
-        <v>845</v>
-      </c>
-      <c r="F127" s="15" t="s">
+      <c r="G127" s="15" t="s">
         <v>854</v>
       </c>
-      <c r="G127" s="15" t="s">
+      <c r="H127" s="15" t="s">
         <v>855</v>
-      </c>
-      <c r="H127" s="15" t="s">
-        <v>856</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
@@ -9111,13 +9111,13 @@
         <v>93</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D128" s="22" t="s">
         <v>202</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F128" s="15" t="s">
         <v>205</v>
@@ -9126,7 +9126,7 @@
         <v>206</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -9155,13 +9155,13 @@
         <v>93</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D129" s="22" t="s">
         <v>217</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F129" s="15" t="s">
         <v>218</v>
@@ -9170,7 +9170,7 @@
         <v>219</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
@@ -9197,22 +9197,22 @@
       </c>
       <c r="B130" s="15"/>
       <c r="C130" s="27" t="s">
+        <v>860</v>
+      </c>
+      <c r="D130" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="E130" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="E130" s="15" t="s">
+      <c r="F130" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="F130" s="15" t="s">
+      <c r="G130" s="15" t="s">
         <v>864</v>
       </c>
-      <c r="G130" s="15" t="s">
+      <c r="H130" s="15" t="s">
         <v>865</v>
-      </c>
-      <c r="H130" s="15" t="s">
-        <v>866</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -9241,22 +9241,22 @@
         <v>93</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E131" s="30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H131" s="26" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
@@ -9285,22 +9285,22 @@
         <v>93</v>
       </c>
       <c r="C132" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="D132" s="22" t="s">
         <v>867</v>
       </c>
-      <c r="D132" s="22" t="s">
+      <c r="E132" s="15" t="s">
         <v>868</v>
-      </c>
-      <c r="E132" s="15" t="s">
-        <v>869</v>
       </c>
       <c r="F132" s="15" t="s">
         <v>163</v>
       </c>
       <c r="G132" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="H132" s="15" t="s">
         <v>870</v>
-      </c>
-      <c r="H132" s="15" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="133" spans="1:26" ht="14.25" customHeight="1">
@@ -9311,22 +9311,22 @@
         <v>103</v>
       </c>
       <c r="C133" s="27" t="s">
+        <v>871</v>
+      </c>
+      <c r="D133" s="22" t="s">
         <v>872</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="E133" s="15" t="s">
         <v>873</v>
-      </c>
-      <c r="E133" s="15" t="s">
-        <v>874</v>
       </c>
       <c r="F133" s="15" t="s">
         <v>169</v>
       </c>
       <c r="G133" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="H133" s="15" t="s">
         <v>875</v>
-      </c>
-      <c r="H133" s="15" t="s">
-        <v>876</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -9355,22 +9355,22 @@
         <v>93</v>
       </c>
       <c r="C134" s="27" t="s">
+        <v>876</v>
+      </c>
+      <c r="D134" s="22" t="s">
         <v>877</v>
       </c>
-      <c r="D134" s="22" t="s">
+      <c r="E134" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="E134" s="15" t="s">
+      <c r="F134" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="F134" s="15" t="s">
+      <c r="G134" s="15" t="s">
         <v>880</v>
       </c>
-      <c r="G134" s="15" t="s">
+      <c r="H134" s="15" t="s">
         <v>881</v>
-      </c>
-      <c r="H134" s="15" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="135" spans="1:26" ht="14.25" customHeight="1">
@@ -9379,22 +9379,22 @@
       </c>
       <c r="B135" s="15"/>
       <c r="C135" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="D135" s="22" t="s">
         <v>883</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="E135" s="15" t="s">
         <v>884</v>
       </c>
-      <c r="E135" s="15" t="s">
+      <c r="F135" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="F135" s="15" t="s">
+      <c r="G135" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="G135" s="15" t="s">
+      <c r="H135" s="15" t="s">
         <v>887</v>
-      </c>
-      <c r="H135" s="15" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="136" spans="1:26" ht="14.25" customHeight="1">
@@ -9403,22 +9403,22 @@
       </c>
       <c r="B136" s="15"/>
       <c r="C136" s="27" t="s">
+        <v>888</v>
+      </c>
+      <c r="D136" s="22" t="s">
         <v>889</v>
       </c>
-      <c r="D136" s="22" t="s">
+      <c r="E136" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="E136" s="15" t="s">
+      <c r="F136" s="15" t="s">
         <v>891</v>
       </c>
-      <c r="F136" s="15" t="s">
+      <c r="G136" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="G136" s="15" t="s">
+      <c r="H136" s="15" t="s">
         <v>893</v>
-      </c>
-      <c r="H136" s="15" t="s">
-        <v>894</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -9445,22 +9445,22 @@
       </c>
       <c r="B137" s="15"/>
       <c r="C137" s="27" t="s">
+        <v>888</v>
+      </c>
+      <c r="D137" s="22" t="s">
         <v>889</v>
       </c>
-      <c r="D137" s="22" t="s">
-        <v>890</v>
-      </c>
       <c r="E137" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="F137" s="15" t="s">
         <v>895</v>
       </c>
-      <c r="F137" s="15" t="s">
+      <c r="G137" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="H137" s="15" t="s">
         <v>896</v>
-      </c>
-      <c r="G137" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="H137" s="15" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="138" spans="1:26" ht="14.25" customHeight="1">
@@ -9469,22 +9469,22 @@
       </c>
       <c r="B138" s="15"/>
       <c r="C138" s="27" t="s">
+        <v>897</v>
+      </c>
+      <c r="D138" s="22" t="s">
         <v>898</v>
       </c>
-      <c r="D138" s="22" t="s">
+      <c r="E138" s="15" t="s">
         <v>899</v>
       </c>
-      <c r="E138" s="15" t="s">
+      <c r="F138" s="15" t="s">
         <v>900</v>
       </c>
-      <c r="F138" s="15" t="s">
+      <c r="G138" s="15" t="s">
         <v>901</v>
       </c>
-      <c r="G138" s="15" t="s">
+      <c r="H138" s="15" t="s">
         <v>902</v>
-      </c>
-      <c r="H138" s="15" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="139" spans="1:26" ht="14.25" customHeight="1">
@@ -9493,22 +9493,22 @@
       </c>
       <c r="B139" s="15"/>
       <c r="C139" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="E139" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="D139" s="22" t="s">
-        <v>899</v>
-      </c>
-      <c r="E139" s="15" t="s">
+      <c r="F139" s="15" t="s">
         <v>905</v>
       </c>
-      <c r="F139" s="15" t="s">
+      <c r="G139" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="H139" s="15" t="s">
         <v>906</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>902</v>
-      </c>
-      <c r="H139" s="15" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="140" spans="1:26" ht="14.25" customHeight="1">
@@ -9519,22 +9519,22 @@
         <v>93</v>
       </c>
       <c r="C140" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="D140" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="D140" s="22" t="s">
+      <c r="E140" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="F140" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="E140" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="F140" s="15" t="s">
+      <c r="G140" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="G140" s="15" t="s">
+      <c r="H140" s="15" t="s">
         <v>620</v>
-      </c>
-      <c r="H140" s="15" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="141" spans="1:26" ht="14.25" customHeight="1">
@@ -9545,22 +9545,22 @@
         <v>103</v>
       </c>
       <c r="C141" s="27" t="s">
+        <v>907</v>
+      </c>
+      <c r="D141" s="22" t="s">
         <v>908</v>
       </c>
-      <c r="D141" s="22" t="s">
+      <c r="E141" s="15" t="s">
         <v>909</v>
       </c>
-      <c r="E141" s="15" t="s">
+      <c r="F141" s="15" t="s">
         <v>910</v>
       </c>
-      <c r="F141" s="15" t="s">
+      <c r="G141" s="15" t="s">
         <v>911</v>
       </c>
-      <c r="G141" s="15" t="s">
+      <c r="H141" s="15" t="s">
         <v>912</v>
-      </c>
-      <c r="H141" s="15" t="s">
-        <v>913</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -9631,22 +9631,22 @@
         <v>93</v>
       </c>
       <c r="C143" s="27" t="s">
+        <v>913</v>
+      </c>
+      <c r="D143" s="22" t="s">
         <v>914</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="E143" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="E143" s="15" t="s">
+      <c r="F143" s="15" t="s">
         <v>916</v>
       </c>
-      <c r="F143" s="15" t="s">
+      <c r="G143" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="H143" s="15" t="s">
         <v>917</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="H143" s="15" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="144" spans="1:26" ht="14.25" customHeight="1">
@@ -9657,22 +9657,22 @@
         <v>93</v>
       </c>
       <c r="C144" s="27" t="s">
+        <v>918</v>
+      </c>
+      <c r="D144" s="22" t="s">
         <v>919</v>
       </c>
-      <c r="D144" s="22" t="s">
+      <c r="E144" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="E144" s="15" t="s">
+      <c r="F144" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="F144" s="15" t="s">
+      <c r="G144" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="G144" s="15" t="s">
+      <c r="H144" s="15" t="s">
         <v>923</v>
-      </c>
-      <c r="H144" s="15" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="145" spans="1:26" ht="14.25" customHeight="1">
@@ -9683,22 +9683,22 @@
         <v>93</v>
       </c>
       <c r="C145" s="27" t="s">
+        <v>924</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="E145" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="D145" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="E145" s="15" t="s">
-        <v>926</v>
-      </c>
       <c r="F145" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="G145" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="G145" s="15" t="s">
+      <c r="H145" s="15" t="s">
         <v>430</v>
-      </c>
-      <c r="H145" s="15" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="146" spans="1:26" ht="14.25" customHeight="1">
@@ -9709,48 +9709,48 @@
         <v>93</v>
       </c>
       <c r="C146" s="27" t="s">
+        <v>926</v>
+      </c>
+      <c r="D146" s="22" t="s">
         <v>927</v>
       </c>
-      <c r="D146" s="22" t="s">
+      <c r="E146" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="E146" s="15" t="s">
+      <c r="F146" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="F146" s="15" t="s">
+      <c r="G146" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="G146" s="15" t="s">
+      <c r="H146" s="15" t="s">
         <v>931</v>
-      </c>
-      <c r="H146" s="15" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="147" spans="1:26" ht="14.25" customHeight="1">
       <c r="A147" s="15" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B147" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C147" s="27" t="s">
+        <v>933</v>
+      </c>
+      <c r="D147" s="22" t="s">
         <v>934</v>
       </c>
-      <c r="D147" s="22" t="s">
+      <c r="E147" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="E147" s="15" t="s">
+      <c r="F147" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="F147" s="15" t="s">
+      <c r="G147" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="G147" s="15" t="s">
+      <c r="H147" s="15" t="s">
         <v>938</v>
-      </c>
-      <c r="H147" s="15" t="s">
-        <v>939</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
@@ -9779,22 +9779,22 @@
         <v>93</v>
       </c>
       <c r="C148" s="27" t="s">
+        <v>939</v>
+      </c>
+      <c r="D148" s="22" t="s">
         <v>940</v>
       </c>
-      <c r="D148" s="22" t="s">
+      <c r="E148" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="E148" s="15" t="s">
+      <c r="F148" s="15" t="s">
         <v>942</v>
       </c>
-      <c r="F148" s="15" t="s">
+      <c r="G148" s="15" t="s">
         <v>943</v>
       </c>
-      <c r="G148" s="15" t="s">
+      <c r="H148" s="15" t="s">
         <v>944</v>
-      </c>
-      <c r="H148" s="15" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="14.25" customHeight="1">
@@ -9805,22 +9805,22 @@
         <v>103</v>
       </c>
       <c r="C149" s="27" t="s">
+        <v>945</v>
+      </c>
+      <c r="D149" s="22" t="s">
         <v>946</v>
       </c>
-      <c r="D149" s="22" t="s">
+      <c r="E149" s="15" t="s">
         <v>947</v>
       </c>
-      <c r="E149" s="15" t="s">
+      <c r="F149" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="F149" s="15" t="s">
+      <c r="G149" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="G149" s="15" t="s">
+      <c r="H149" s="15" t="s">
         <v>950</v>
-      </c>
-      <c r="H149" s="15" t="s">
-        <v>951</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -9849,22 +9849,22 @@
         <v>93</v>
       </c>
       <c r="C150" s="27" t="s">
+        <v>951</v>
+      </c>
+      <c r="D150" s="22" t="s">
         <v>952</v>
       </c>
-      <c r="D150" s="22" t="s">
+      <c r="E150" s="15" t="s">
         <v>953</v>
       </c>
-      <c r="E150" s="15" t="s">
+      <c r="F150" s="15" t="s">
         <v>954</v>
       </c>
-      <c r="F150" s="15" t="s">
+      <c r="G150" s="15" t="s">
         <v>955</v>
       </c>
-      <c r="G150" s="15" t="s">
+      <c r="H150" s="15" t="s">
         <v>956</v>
-      </c>
-      <c r="H150" s="15" t="s">
-        <v>957</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -9891,22 +9891,22 @@
       </c>
       <c r="B151" s="15"/>
       <c r="C151" s="27" t="s">
+        <v>957</v>
+      </c>
+      <c r="D151" s="22" t="s">
         <v>958</v>
       </c>
-      <c r="D151" s="22" t="s">
+      <c r="E151" s="15" t="s">
         <v>959</v>
       </c>
-      <c r="E151" s="15" t="s">
+      <c r="F151" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="G151" s="15" t="s">
         <v>960</v>
       </c>
-      <c r="F151" s="15" t="s">
-        <v>958</v>
-      </c>
-      <c r="G151" s="15" t="s">
+      <c r="H151" s="15" t="s">
         <v>961</v>
-      </c>
-      <c r="H151" s="15" t="s">
-        <v>962</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -9929,28 +9929,28 @@
     </row>
     <row r="152" spans="1:26" ht="14.25" customHeight="1">
       <c r="A152" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B152" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="B152" s="15" t="s">
-        <v>445</v>
-      </c>
       <c r="C152" s="27" t="s">
+        <v>962</v>
+      </c>
+      <c r="D152" s="22" t="s">
         <v>963</v>
       </c>
-      <c r="D152" s="22" t="s">
+      <c r="E152" s="15" t="s">
         <v>964</v>
       </c>
-      <c r="E152" s="15" t="s">
+      <c r="F152" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="F152" s="15" t="s">
+      <c r="G152" s="15" t="s">
         <v>966</v>
       </c>
-      <c r="G152" s="15" t="s">
+      <c r="H152" s="15" t="s">
         <v>967</v>
-      </c>
-      <c r="H152" s="15" t="s">
-        <v>968</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -9977,22 +9977,22 @@
       </c>
       <c r="B153" s="15"/>
       <c r="C153" s="27" t="s">
+        <v>968</v>
+      </c>
+      <c r="D153" s="22" t="s">
         <v>969</v>
       </c>
-      <c r="D153" s="22" t="s">
+      <c r="E153" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="E153" s="15" t="s">
+      <c r="F153" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="G153" s="15" t="s">
         <v>971</v>
       </c>
-      <c r="F153" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="G153" s="15" t="s">
+      <c r="H153" s="15" t="s">
         <v>972</v>
-      </c>
-      <c r="H153" s="15" t="s">
-        <v>973</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -10021,22 +10021,22 @@
         <v>93</v>
       </c>
       <c r="C154" s="27" t="s">
+        <v>973</v>
+      </c>
+      <c r="D154" s="22" t="s">
         <v>974</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="E154" s="15" t="s">
         <v>975</v>
       </c>
-      <c r="E154" s="15" t="s">
+      <c r="F154" s="15" t="s">
         <v>976</v>
       </c>
-      <c r="F154" s="15" t="s">
+      <c r="G154" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="G154" s="15" t="s">
+      <c r="H154" s="15" t="s">
         <v>978</v>
-      </c>
-      <c r="H154" s="15" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="14.25" customHeight="1">
@@ -10047,22 +10047,22 @@
         <v>93</v>
       </c>
       <c r="C155" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="D155" s="22" t="s">
         <v>980</v>
       </c>
-      <c r="D155" s="22" t="s">
+      <c r="E155" s="15" t="s">
         <v>981</v>
       </c>
-      <c r="E155" s="15" t="s">
+      <c r="F155" s="15" t="s">
         <v>982</v>
       </c>
-      <c r="F155" s="15" t="s">
+      <c r="G155" s="15" t="s">
         <v>983</v>
       </c>
-      <c r="G155" s="15" t="s">
+      <c r="H155" s="15" t="s">
         <v>984</v>
-      </c>
-      <c r="H155" s="15" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="14.25" customHeight="1">
@@ -10073,22 +10073,22 @@
         <v>93</v>
       </c>
       <c r="C156" s="27" t="s">
+        <v>985</v>
+      </c>
+      <c r="D156" s="22" t="s">
         <v>986</v>
       </c>
-      <c r="D156" s="22" t="s">
+      <c r="E156" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="G156" s="15" t="s">
         <v>987</v>
       </c>
-      <c r="E156" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="F156" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="G156" s="15" t="s">
+      <c r="H156" s="15" t="s">
         <v>988</v>
-      </c>
-      <c r="H156" s="15" t="s">
-        <v>989</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -10117,22 +10117,22 @@
         <v>93</v>
       </c>
       <c r="C157" s="27" t="s">
+        <v>989</v>
+      </c>
+      <c r="D157" s="22" t="s">
         <v>990</v>
       </c>
-      <c r="D157" s="22" t="s">
+      <c r="E157" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="H157" s="15" t="s">
         <v>991</v>
-      </c>
-      <c r="E157" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="F157" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="G157" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="H157" s="15" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="158" spans="1:26" ht="14.25" customHeight="1">
@@ -10143,22 +10143,22 @@
         <v>93</v>
       </c>
       <c r="C158" s="27" t="s">
+        <v>992</v>
+      </c>
+      <c r="D158" s="22" t="s">
         <v>993</v>
       </c>
-      <c r="D158" s="22" t="s">
+      <c r="E158" s="15" t="s">
         <v>994</v>
       </c>
-      <c r="E158" s="15" t="s">
+      <c r="F158" s="15" t="s">
         <v>995</v>
       </c>
-      <c r="F158" s="15" t="s">
+      <c r="G158" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="H158" s="15" t="s">
         <v>996</v>
-      </c>
-      <c r="G158" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="H158" s="15" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="14.25" customHeight="1">
@@ -10169,22 +10169,22 @@
         <v>103</v>
       </c>
       <c r="C159" s="27" t="s">
+        <v>997</v>
+      </c>
+      <c r="D159" s="22" t="s">
         <v>998</v>
       </c>
-      <c r="D159" s="22" t="s">
+      <c r="E159" s="15" t="s">
         <v>999</v>
       </c>
-      <c r="E159" s="15" t="s">
+      <c r="F159" s="15" t="s">
         <v>1000</v>
       </c>
-      <c r="F159" s="15" t="s">
+      <c r="G159" s="15" t="s">
         <v>1001</v>
       </c>
-      <c r="G159" s="15" t="s">
+      <c r="H159" s="15" t="s">
         <v>1002</v>
-      </c>
-      <c r="H159" s="15" t="s">
-        <v>1003</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -10211,22 +10211,22 @@
       </c>
       <c r="B160" s="15"/>
       <c r="C160" s="27" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D160" s="22" t="s">
         <v>1005</v>
       </c>
-      <c r="D160" s="22" t="s">
+      <c r="E160" s="15" t="s">
         <v>1006</v>
       </c>
-      <c r="E160" s="15" t="s">
+      <c r="F160" s="15" t="s">
         <v>1007</v>
       </c>
-      <c r="F160" s="15" t="s">
+      <c r="G160" s="15" t="s">
         <v>1008</v>
       </c>
-      <c r="G160" s="15" t="s">
+      <c r="H160" s="15" t="s">
         <v>1009</v>
-      </c>
-      <c r="H160" s="15" t="s">
-        <v>1010</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -10255,22 +10255,22 @@
         <v>93</v>
       </c>
       <c r="C161" s="27" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D161" s="22" t="s">
         <v>1011</v>
       </c>
-      <c r="D161" s="22" t="s">
+      <c r="E161" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="F161" s="15" t="s">
         <v>1012</v>
       </c>
-      <c r="E161" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="F161" s="15" t="s">
-        <v>1013</v>
-      </c>
       <c r="G161" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H161" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="162" spans="1:26" ht="14.25" customHeight="1">
@@ -10281,22 +10281,22 @@
         <v>103</v>
       </c>
       <c r="C162" s="27" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D162" s="22" t="s">
         <v>1014</v>
       </c>
-      <c r="D162" s="22" t="s">
+      <c r="E162" s="15" t="s">
         <v>1015</v>
       </c>
-      <c r="E162" s="15" t="s">
+      <c r="F162" s="15" t="s">
         <v>1016</v>
       </c>
-      <c r="F162" s="15" t="s">
+      <c r="G162" s="15" t="s">
         <v>1017</v>
       </c>
-      <c r="G162" s="15" t="s">
+      <c r="H162" s="15" t="s">
         <v>1018</v>
-      </c>
-      <c r="H162" s="15" t="s">
-        <v>1019</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -10325,22 +10325,22 @@
         <v>93</v>
       </c>
       <c r="C163" s="27" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D163" s="22" t="s">
         <v>1021</v>
       </c>
-      <c r="D163" s="22" t="s">
+      <c r="E163" s="15" t="s">
         <v>1022</v>
       </c>
-      <c r="E163" s="15" t="s">
+      <c r="F163" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="F163" s="15" t="s">
+      <c r="G163" s="15" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H163" s="15" t="s">
         <v>1024</v>
-      </c>
-      <c r="G163" s="15" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H163" s="15" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="164" spans="1:26" ht="14.25" customHeight="1">
@@ -10351,22 +10351,22 @@
         <v>103</v>
       </c>
       <c r="C164" s="27" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D164" s="22" t="s">
         <v>1026</v>
       </c>
-      <c r="D164" s="22" t="s">
+      <c r="E164" s="15" t="s">
         <v>1027</v>
       </c>
-      <c r="E164" s="15" t="s">
+      <c r="F164" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="F164" s="15" t="s">
+      <c r="G164" s="15" t="s">
         <v>1029</v>
       </c>
-      <c r="G164" s="15" t="s">
+      <c r="H164" s="15" t="s">
         <v>1030</v>
-      </c>
-      <c r="H164" s="15" t="s">
-        <v>1031</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -10393,22 +10393,22 @@
       </c>
       <c r="B165" s="15"/>
       <c r="C165" s="27" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D165" s="22" t="s">
         <v>1032</v>
       </c>
-      <c r="D165" s="22" t="s">
+      <c r="E165" s="15" t="s">
         <v>1033</v>
       </c>
-      <c r="E165" s="15" t="s">
+      <c r="F165" s="15" t="s">
         <v>1034</v>
       </c>
-      <c r="F165" s="15" t="s">
+      <c r="G165" s="15" t="s">
         <v>1035</v>
       </c>
-      <c r="G165" s="15" t="s">
+      <c r="H165" s="15" t="s">
         <v>1036</v>
-      </c>
-      <c r="H165" s="15" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="14.25" customHeight="1">
@@ -10417,22 +10417,22 @@
       </c>
       <c r="B166" s="15"/>
       <c r="C166" s="27" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D166" s="22" t="s">
         <v>1038</v>
       </c>
-      <c r="D166" s="22" t="s">
+      <c r="E166" s="15" t="s">
         <v>1039</v>
       </c>
-      <c r="E166" s="15" t="s">
+      <c r="F166" s="15" t="s">
         <v>1040</v>
       </c>
-      <c r="F166" s="15" t="s">
+      <c r="G166" s="15" t="s">
         <v>1041</v>
       </c>
-      <c r="G166" s="15" t="s">
+      <c r="H166" s="15" t="s">
         <v>1042</v>
-      </c>
-      <c r="H166" s="15" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="14.25" customHeight="1">
@@ -10441,22 +10441,22 @@
       </c>
       <c r="B167" s="15"/>
       <c r="C167" s="27" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D167" s="22" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E167" s="15" t="s">
         <v>1046</v>
       </c>
-      <c r="E167" s="15" t="s">
+      <c r="F167" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="F167" s="15" t="s">
+      <c r="G167" s="15" t="s">
         <v>1048</v>
       </c>
-      <c r="G167" s="15" t="s">
+      <c r="H167" s="15" t="s">
         <v>1049</v>
-      </c>
-      <c r="H167" s="15" t="s">
-        <v>1050</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -10483,22 +10483,22 @@
       </c>
       <c r="B168" s="15"/>
       <c r="C168" s="27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D168" s="22" t="s">
         <v>1051</v>
       </c>
-      <c r="D168" s="22" t="s">
+      <c r="E168" s="15" t="s">
         <v>1052</v>
       </c>
-      <c r="E168" s="15" t="s">
+      <c r="F168" s="15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G168" s="15" t="s">
         <v>1053</v>
       </c>
-      <c r="F168" s="15" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G168" s="15" t="s">
-        <v>1054</v>
-      </c>
       <c r="H168" s="15" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
@@ -10527,22 +10527,22 @@
         <v>93</v>
       </c>
       <c r="C169" s="27" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D169" s="22" t="s">
         <v>1055</v>
       </c>
-      <c r="D169" s="22" t="s">
+      <c r="E169" s="15" t="s">
         <v>1056</v>
       </c>
-      <c r="E169" s="15" t="s">
+      <c r="F169" s="15" t="s">
         <v>1057</v>
       </c>
-      <c r="F169" s="15" t="s">
+      <c r="G169" s="15" t="s">
         <v>1058</v>
       </c>
-      <c r="G169" s="15" t="s">
-        <v>1059</v>
-      </c>
       <c r="H169" s="15" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -10569,22 +10569,22 @@
       </c>
       <c r="B170" s="15"/>
       <c r="C170" s="27" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D170" s="22" t="s">
         <v>1061</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="E170" s="15" t="s">
         <v>1062</v>
       </c>
-      <c r="E170" s="15" t="s">
+      <c r="F170" s="15" t="s">
         <v>1063</v>
       </c>
-      <c r="F170" s="15" t="s">
+      <c r="G170" s="15" t="s">
         <v>1064</v>
       </c>
-      <c r="G170" s="15" t="s">
+      <c r="H170" s="15" t="s">
         <v>1065</v>
-      </c>
-      <c r="H170" s="15" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="14.25" customHeight="1">
@@ -10593,22 +10593,22 @@
       </c>
       <c r="B171" s="15"/>
       <c r="C171" s="27" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D171" s="22" t="s">
         <v>1067</v>
       </c>
-      <c r="D171" s="22" t="s">
+      <c r="E171" s="15" t="s">
         <v>1068</v>
       </c>
-      <c r="E171" s="15" t="s">
-        <v>1069</v>
-      </c>
       <c r="F171" s="31" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G171" s="15" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H171" s="15" t="s">
         <v>1071</v>
-      </c>
-      <c r="H171" s="15" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="172" spans="1:26" ht="14.25" customHeight="1">
@@ -10619,22 +10619,22 @@
         <v>93</v>
       </c>
       <c r="C172" s="27" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="E172" s="15" t="s">
         <v>1074</v>
       </c>
-      <c r="D172" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="E172" s="15" t="s">
+      <c r="F172" s="31" t="s">
         <v>1075</v>
       </c>
-      <c r="F172" s="31" t="s">
+      <c r="G172" s="15" t="s">
         <v>1076</v>
       </c>
-      <c r="G172" s="15" t="s">
-        <v>1077</v>
-      </c>
       <c r="H172" s="15" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
@@ -10663,22 +10663,22 @@
         <v>103</v>
       </c>
       <c r="C173" s="27" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D173" s="22" t="s">
         <v>1078</v>
       </c>
-      <c r="D173" s="22" t="s">
+      <c r="E173" s="15" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F173" s="31" t="s">
         <v>1079</v>
       </c>
-      <c r="E173" s="15" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F173" s="31" t="s">
+      <c r="G173" s="15" t="s">
         <v>1080</v>
       </c>
-      <c r="G173" s="15" t="s">
+      <c r="H173" s="15" t="s">
         <v>1081</v>
-      </c>
-      <c r="H173" s="15" t="s">
-        <v>1082</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
@@ -10708,19 +10708,19 @@
         <v>5</v>
       </c>
       <c r="D174" s="22" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E174" s="15" t="s">
         <v>1084</v>
-      </c>
-      <c r="E174" s="15" t="s">
-        <v>1085</v>
       </c>
       <c r="F174" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G174" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H174" s="15" t="s">
         <v>1086</v>
-      </c>
-      <c r="H174" s="15" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="175" spans="1:26" ht="14.25" customHeight="1">
@@ -10731,10 +10731,10 @@
         <v>93</v>
       </c>
       <c r="C175" s="27" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D175" s="22" t="s">
         <v>1088</v>
-      </c>
-      <c r="D175" s="22" t="s">
-        <v>1089</v>
       </c>
       <c r="E175" s="15" t="s">
         <v>162</v>
@@ -10743,10 +10743,10 @@
         <v>163</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H175" s="15" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="176" spans="1:26" ht="14.25" customHeight="1">
@@ -10757,22 +10757,22 @@
         <v>93</v>
       </c>
       <c r="C176" s="27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D176" s="22" t="s">
         <v>1091</v>
       </c>
-      <c r="D176" s="22" t="s">
+      <c r="E176" s="15" t="s">
         <v>1092</v>
       </c>
-      <c r="E176" s="15" t="s">
+      <c r="F176" s="15" t="s">
         <v>1093</v>
       </c>
-      <c r="F176" s="15" t="s">
+      <c r="G176" s="15" t="s">
         <v>1094</v>
       </c>
-      <c r="G176" s="15" t="s">
+      <c r="H176" s="15" t="s">
         <v>1095</v>
-      </c>
-      <c r="H176" s="15" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="177" spans="1:26" ht="14.25" customHeight="1">
@@ -10783,22 +10783,22 @@
         <v>93</v>
       </c>
       <c r="C177" s="27" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D177" s="22" t="s">
         <v>1097</v>
       </c>
-      <c r="D177" s="22" t="s">
+      <c r="E177" s="15" t="s">
         <v>1098</v>
       </c>
-      <c r="E177" s="15" t="s">
+      <c r="F177" s="15" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G177" s="15" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H177" s="15" t="s">
         <v>1099</v>
-      </c>
-      <c r="F177" s="15" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G177" s="15" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H177" s="15" t="s">
-        <v>1100</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
@@ -10827,22 +10827,22 @@
         <v>93</v>
       </c>
       <c r="C178" s="27" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="F178" s="15" t="s">
         <v>1102</v>
       </c>
-      <c r="D178" s="22" t="s">
-        <v>806</v>
-      </c>
-      <c r="E178" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="F178" s="15" t="s">
-        <v>1103</v>
-      </c>
       <c r="G178" s="15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H178" s="15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1">
@@ -10853,22 +10853,22 @@
         <v>103</v>
       </c>
       <c r="C179" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D179" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="E179" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="F179" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="G179" s="15" t="s">
         <v>1104</v>
       </c>
-      <c r="D179" s="22" t="s">
-        <v>812</v>
-      </c>
-      <c r="E179" s="15" t="s">
-        <v>813</v>
-      </c>
-      <c r="F179" s="15" t="s">
-        <v>814</v>
-      </c>
-      <c r="G179" s="15" t="s">
-        <v>1105</v>
-      </c>
       <c r="H179" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
@@ -10897,10 +10897,10 @@
         <v>93</v>
       </c>
       <c r="C180" s="27" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D180" s="24" t="s">
         <v>1107</v>
-      </c>
-      <c r="D180" s="24" t="s">
-        <v>1108</v>
       </c>
       <c r="E180" s="15" t="s">
         <v>353</v>
@@ -10909,10 +10909,10 @@
         <v>354</v>
       </c>
       <c r="G180" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H180" s="15" t="s">
         <v>1109</v>
-      </c>
-      <c r="H180" s="15" t="s">
-        <v>1110</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
@@ -10941,10 +10941,10 @@
         <v>103</v>
       </c>
       <c r="C181" s="27" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D181" s="24" t="s">
         <v>1111</v>
-      </c>
-      <c r="D181" s="24" t="s">
-        <v>1112</v>
       </c>
       <c r="E181" s="15" t="s">
         <v>359</v>
@@ -10953,10 +10953,10 @@
         <v>360</v>
       </c>
       <c r="G181" s="15" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H181" s="15" t="s">
         <v>1114</v>
-      </c>
-      <c r="H181" s="15" t="s">
-        <v>1115</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
@@ -10983,22 +10983,22 @@
       </c>
       <c r="B182" s="15"/>
       <c r="C182" s="27" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D182" s="22" t="s">
         <v>1116</v>
       </c>
-      <c r="D182" s="22" t="s">
+      <c r="E182" s="15" t="s">
         <v>1117</v>
       </c>
-      <c r="E182" s="15" t="s">
+      <c r="F182" s="15" t="s">
         <v>1118</v>
       </c>
-      <c r="F182" s="15" t="s">
+      <c r="G182" s="15" t="s">
         <v>1119</v>
       </c>
-      <c r="G182" s="15" t="s">
+      <c r="H182" s="15" t="s">
         <v>1120</v>
-      </c>
-      <c r="H182" s="15" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="183" spans="1:26" ht="14.25" customHeight="1">
@@ -11007,22 +11007,22 @@
       </c>
       <c r="B183" s="15"/>
       <c r="C183" s="27" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D183" s="22" t="s">
         <v>1122</v>
       </c>
-      <c r="D183" s="22" t="s">
+      <c r="E183" s="15" t="s">
         <v>1123</v>
       </c>
-      <c r="E183" s="15" t="s">
+      <c r="F183" s="15" t="s">
         <v>1124</v>
       </c>
-      <c r="F183" s="15" t="s">
+      <c r="G183" s="15" t="s">
         <v>1125</v>
       </c>
-      <c r="G183" s="15" t="s">
-        <v>1126</v>
-      </c>
       <c r="H183" s="15" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="184" spans="1:26" ht="14.25" customHeight="1">
@@ -11033,22 +11033,22 @@
         <v>93</v>
       </c>
       <c r="C184" s="27" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D184" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="E184" s="15" t="s">
         <v>1129</v>
       </c>
-      <c r="D184" s="22" t="s">
-        <v>981</v>
-      </c>
-      <c r="E184" s="15" t="s">
+      <c r="F184" s="15" t="s">
         <v>1130</v>
       </c>
-      <c r="F184" s="15" t="s">
+      <c r="G184" s="15" t="s">
         <v>1131</v>
       </c>
-      <c r="G184" s="15" t="s">
+      <c r="H184" s="15" t="s">
         <v>1132</v>
-      </c>
-      <c r="H184" s="15" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="185" spans="1:26" ht="14.25" customHeight="1">
@@ -11057,22 +11057,22 @@
       </c>
       <c r="B185" s="15"/>
       <c r="C185" s="27" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D185" s="22" t="s">
         <v>1134</v>
       </c>
-      <c r="D185" s="22" t="s">
+      <c r="E185" s="15" t="s">
         <v>1135</v>
       </c>
-      <c r="E185" s="15" t="s">
+      <c r="F185" s="15" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G185" s="15" t="s">
         <v>1136</v>
       </c>
-      <c r="F185" s="15" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G185" s="15" t="s">
-        <v>1137</v>
-      </c>
       <c r="H185" s="15" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
@@ -11099,22 +11099,22 @@
       </c>
       <c r="B186" s="15"/>
       <c r="C186" s="27" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D186" s="22" t="s">
         <v>1138</v>
       </c>
-      <c r="D186" s="22" t="s">
+      <c r="E186" s="15" t="s">
         <v>1139</v>
       </c>
-      <c r="E186" s="15" t="s">
+      <c r="F186" s="15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G186" s="15" t="s">
         <v>1140</v>
       </c>
-      <c r="F186" s="15" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G186" s="15" t="s">
+      <c r="H186" s="15" t="s">
         <v>1141</v>
-      </c>
-      <c r="H186" s="15" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="187" spans="1:26" ht="14.25" customHeight="1">
@@ -11123,22 +11123,22 @@
       </c>
       <c r="B187" s="15"/>
       <c r="C187" s="27" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D187" s="22" t="s">
         <v>1143</v>
       </c>
-      <c r="D187" s="22" t="s">
+      <c r="E187" s="15" t="s">
         <v>1144</v>
       </c>
-      <c r="E187" s="15" t="s">
+      <c r="F187" s="15" t="s">
         <v>1145</v>
       </c>
-      <c r="F187" s="15" t="s">
+      <c r="G187" s="15" t="s">
         <v>1146</v>
       </c>
-      <c r="G187" s="15" t="s">
+      <c r="H187" s="15" t="s">
         <v>1147</v>
-      </c>
-      <c r="H187" s="15" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="188" spans="1:26" ht="14.25" customHeight="1">
@@ -11147,22 +11147,22 @@
       </c>
       <c r="B188" s="15"/>
       <c r="C188" s="27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D188" s="15" t="s">
         <v>1150</v>
       </c>
-      <c r="D188" s="15" t="s">
+      <c r="E188" s="15" t="s">
         <v>1151</v>
       </c>
-      <c r="E188" s="15" t="s">
+      <c r="F188" s="15" t="s">
         <v>1152</v>
       </c>
-      <c r="F188" s="15" t="s">
+      <c r="G188" s="15" t="s">
         <v>1153</v>
       </c>
-      <c r="G188" s="15" t="s">
-        <v>1154</v>
-      </c>
       <c r="H188" s="15" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="189" spans="1:26" ht="14.25" customHeight="1">
@@ -11189,7 +11189,7 @@
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -14548,7 +14548,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -14637,7 +14637,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -14992,7 +14992,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
@@ -15003,7 +15003,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
@@ -15014,7 +15014,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
@@ -15025,7 +15025,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
@@ -15036,7 +15036,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
@@ -15047,7 +15047,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
@@ -15058,7 +15058,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
@@ -15069,7 +15069,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
@@ -15080,7 +15080,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
@@ -15091,7 +15091,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
@@ -15102,7 +15102,7 @@
         <v>12</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
@@ -15113,7 +15113,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
@@ -15124,7 +15124,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
@@ -15135,7 +15135,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
@@ -15146,7 +15146,7 @@
         <v>9</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
@@ -15157,7 +15157,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
@@ -15168,7 +15168,7 @@
         <v>12</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
@@ -15179,7 +15179,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
@@ -15190,7 +15190,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
@@ -15201,7 +15201,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
@@ -15212,7 +15212,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
@@ -15223,7 +15223,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
@@ -15234,7 +15234,7 @@
         <v>12</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
@@ -15245,7 +15245,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
@@ -15256,7 +15256,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
@@ -15267,7 +15267,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
@@ -15278,7 +15278,7 @@
         <v>9</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
@@ -15289,7 +15289,7 @@
         <v>10</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
@@ -15300,7 +15300,7 @@
         <v>12</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
@@ -15311,7 +15311,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
@@ -15322,7 +15322,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
@@ -15333,7 +15333,7 @@
         <v>8</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
@@ -15344,7 +15344,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
@@ -15355,7 +15355,7 @@
         <v>10</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
@@ -15366,7 +15366,7 @@
         <v>12</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
@@ -15377,7 +15377,7 @@
         <v>14</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
@@ -18396,7 +18396,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>97</v>
@@ -18419,7 +18419,7 @@
         <v>173</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>174</v>
@@ -18465,7 +18465,7 @@
         <v>202</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>205</v>
@@ -18488,7 +18488,7 @@
         <v>217</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>218</v>
@@ -19537,7 +19537,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -19581,22 +19581,22 @@
         <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
@@ -19604,22 +19604,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
@@ -19627,22 +19627,22 @@
         <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
@@ -19650,22 +19650,22 @@
         <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1">
@@ -19673,22 +19673,22 @@
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1">
@@ -19696,22 +19696,22 @@
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1">
@@ -19739,25 +19739,25 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
@@ -19765,22 +19765,22 @@
         <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1">
@@ -19788,22 +19788,22 @@
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1">
@@ -19811,68 +19811,68 @@
         <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>536</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>541</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>568</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
@@ -19883,19 +19883,19 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
@@ -19903,22 +19903,22 @@
         <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>579</v>
-      </c>
       <c r="F18" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1">
@@ -19926,22 +19926,22 @@
         <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>584</v>
-      </c>
       <c r="D19" s="9" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -19968,45 +19968,45 @@
         <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>599</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
@@ -20014,22 +20014,22 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
@@ -20037,22 +20037,22 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1">
@@ -20060,22 +20060,22 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1">
@@ -20083,22 +20083,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1">
@@ -20106,22 +20106,22 @@
         <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>664</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1">
@@ -20129,22 +20129,22 @@
         <v>13</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1">
@@ -20152,22 +20152,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1">
@@ -20175,22 +20175,22 @@
         <v>13</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1">
@@ -20198,22 +20198,22 @@
         <v>13</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1">
@@ -20221,22 +20221,22 @@
         <v>13</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1">
@@ -20244,22 +20244,22 @@
         <v>13</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1"/>
@@ -21258,7 +21258,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21293,7 +21293,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -21361,7 +21361,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -21427,7 +21427,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -21483,7 +21483,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -21539,7 +21539,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -21595,7 +21595,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -21651,7 +21651,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -21707,7 +21707,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -21763,7 +21763,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -21819,7 +21819,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -21927,7 +21927,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -21936,7 +21936,7 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -21945,7 +21945,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -21954,7 +21954,7 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -21963,7 +21963,7 @@
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -21972,7 +21972,7 @@
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -21981,7 +21981,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -21990,7 +21990,7 @@
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -21999,7 +21999,7 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -22008,7 +22008,7 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -22017,7 +22017,7 @@
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -22026,7 +22026,7 @@
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -22035,7 +22035,7 @@
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -22044,7 +22044,7 @@
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -22053,7 +22053,7 @@
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -22062,7 +22062,7 @@
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -22071,7 +22071,7 @@
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -22080,7 +22080,7 @@
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -22117,39 +22117,39 @@
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>1173</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="14.25" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>1175</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>1177</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>1178</v>
       </c>
       <c r="F91" s="3"/>
     </row>
@@ -22157,661 +22157,661 @@
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>1179</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="14.25" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>1181</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="14.25" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="14.25" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="14.25" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="14.25" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="14.25" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="14.25" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="14.25" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="14.25" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="14.25" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="14.25" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="14.25" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="14.25" customHeight="1">
       <c r="C109" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="14.25" customHeight="1">
       <c r="C110" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>1199</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="14.25" customHeight="1">
       <c r="C111" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>1201</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="14.25" customHeight="1">
       <c r="C112" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="113" spans="3:5" ht="14.25" customHeight="1">
       <c r="C113" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="114" spans="3:5" ht="14.25" customHeight="1">
       <c r="C114" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="115" spans="3:5" ht="14.25" customHeight="1">
       <c r="C115" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="116" spans="3:5" ht="14.25" customHeight="1">
       <c r="C116" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="117" spans="3:5" ht="14.25" customHeight="1">
       <c r="C117" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="118" spans="3:5" ht="14.25" customHeight="1">
       <c r="C118" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D118" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>1209</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="119" spans="3:5" ht="14.25" customHeight="1">
       <c r="C119" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="120" spans="3:5" ht="14.25" customHeight="1">
       <c r="C120" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="121" spans="3:5" ht="14.25" customHeight="1">
       <c r="C121" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="122" spans="3:5" ht="14.25" customHeight="1">
       <c r="C122" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="123" spans="3:5" ht="14.25" customHeight="1">
       <c r="C123" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="124" spans="3:5" ht="14.25" customHeight="1">
       <c r="C124" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="125" spans="3:5" ht="14.25" customHeight="1">
       <c r="C125" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="126" spans="3:5" ht="14.25" customHeight="1">
       <c r="C126" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="127" spans="3:5" ht="14.25" customHeight="1">
       <c r="C127" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="128" spans="3:5" ht="14.25" customHeight="1">
       <c r="C128" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D128" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>1214</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="129" spans="3:5" ht="14.25" customHeight="1">
       <c r="C129" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="130" spans="3:5" ht="14.25" customHeight="1">
       <c r="C130" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="131" spans="3:5" ht="14.25" customHeight="1">
       <c r="C131" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D131" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>1217</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="132" spans="3:5" ht="14.25" customHeight="1">
       <c r="C132" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D132" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>1217</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="133" spans="3:5" ht="14.25" customHeight="1">
       <c r="C133" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D133" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>1217</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="134" spans="3:5" ht="14.25" customHeight="1">
       <c r="C134" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D134" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>1217</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="135" spans="3:5" ht="14.25" customHeight="1">
       <c r="C135" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D135" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>1217</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="136" spans="3:5" ht="14.25" customHeight="1">
       <c r="C136" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D136" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E136" s="3" t="s">
         <v>1217</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="137" spans="3:5" ht="14.25" customHeight="1">
       <c r="C137" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D137" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>1217</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="138" spans="3:5" ht="14.25" customHeight="1">
       <c r="C138" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D138" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>1217</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="139" spans="3:5" ht="14.25" customHeight="1">
       <c r="C139" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D139" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>1217</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="140" spans="3:5" ht="14.25" customHeight="1">
       <c r="C140" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D140" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E140" s="3" t="s">
         <v>1217</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="141" spans="3:5" ht="14.25" customHeight="1">
       <c r="C141" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="142" spans="3:5" ht="14.25" customHeight="1">
       <c r="C142" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="143" spans="3:5" ht="14.25" customHeight="1">
       <c r="C143" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="144" spans="3:5" ht="14.25" customHeight="1">
       <c r="C144" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E144" s="3" t="s">
         <v>1220</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="145" spans="3:5" ht="14.25" customHeight="1">
       <c r="C145" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="146" spans="3:5" ht="14.25" customHeight="1">
       <c r="C146" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E146" s="3" t="s">
         <v>1223</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="147" spans="3:5" ht="14.25" customHeight="1">
       <c r="C147" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="148" spans="3:5" ht="14.25" customHeight="1">
       <c r="C148" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="149" spans="3:5" ht="14.25" customHeight="1"/>
